--- a/public/assets/files/sub-growsers-template.xlsx
+++ b/public/assets/files/sub-growsers-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/stts/public/assets/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9B8A1C-300F-A343-812D-6B8EB375D597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E176C068-3001-AB4E-8AE5-71F1805BAB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4660" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{631D024F-146B-1648-BC22-8C8839FA5D4B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{631D024F-146B-1648-BC22-8C8839FA5D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE52AA17-46B9-8A43-973C-D1C3802E6810}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="246" zoomScaleNormal="246" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,7 +440,7 @@
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -496,17 +496,6 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="3">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Warning" prompt="Please enter valid crop name." sqref="D3:D1048576" xr:uid="{912C050D-7E31-B944-8B35-8FCC9365E146}">
-      <formula1>"Uganda,Kenya,Tanzania"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{55F029CA-A218-1541-8D5C-A0EBDAB23536}">
-      <formula1>"NABE1, NABE2, NABE15, NABE16, NABE17, NABE18, NABE19, NABE7C, NABE8C, BUKENE (OBSE LET), IGORA, Bazooka, Dk8051, SESAME 1, SESAME 2, SESAME 3, Buakalasa 4, Congo 72, FH5160, F86150, Sekedo, Seso 3, Namche 1, Namche 2, Namche 3,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Warning" prompt="Please enter valid crop name." sqref="D2" xr:uid="{1D91253A-9944-2D45-9E64-FDC48EE7AB30}">
-      <formula1>"Bush Beans,Climbing Beans,Ground Nuts,Maize (OPV)"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/assets/files/sub-growsers-template.xlsx
+++ b/public/assets/files/sub-growsers-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/stts/public/assets/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cole\Desktop\stts\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E176C068-3001-AB4E-8AE5-71F1805BAB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA1141F-5920-4E2E-9CFD-A8823EB277CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{631D024F-146B-1648-BC22-8C8839FA5D4B}"/>
   </bookViews>
@@ -17,27 +17,19 @@
   </sheets>
   <definedNames>
     <definedName name="Crop">Sheet1!$D:$D</definedName>
-    <definedName name="Variety">Sheet1!$E:$E</definedName>
+    <definedName name="Variety">Sheet1!$H:$H</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Size</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Crop</t>
   </si>
@@ -48,9 +40,6 @@
     <t>District</t>
   </si>
   <si>
-    <t>Subcourty</t>
-  </si>
-  <si>
     <t>Planting date</t>
   </si>
   <si>
@@ -72,10 +61,25 @@
     <t>Field name</t>
   </si>
   <si>
-    <t>Person Resonsible</t>
-  </si>
-  <si>
     <t>Village</t>
+  </si>
+  <si>
+    <t>Person Responsible</t>
+  </si>
+  <si>
+    <t>Subcounty</t>
+  </si>
+  <si>
+    <t>Field Size(Acres)</t>
+  </si>
+  <si>
+    <t>Seed class</t>
+  </si>
+  <si>
+    <t>Lot Number</t>
+  </si>
+  <si>
+    <t>Source of foundation seed used</t>
   </si>
 </sst>
 </file>
@@ -429,69 +433,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE52AA17-46B9-8A43-973C-D1C3802E6810}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="246" zoomScaleNormal="246" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="246" zoomScaleNormal="246" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
+    <col min="4" max="7" width="11.8984375" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.796875" style="1"/>
+    <col min="16" max="16" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
